--- a/testData/writedata.xlsx
+++ b/testData/writedata.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,18 +19,305 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="89">
   <si>
     <t>Product</t>
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Black Ankle Cut Printed Bandana Synthetic Round Toe Lace-Up Closure Medium Width Casual/Sport Sneakers For Men And Women</t>
+  </si>
+  <si>
+    <t>Rs.496
+Rs. 550</t>
+  </si>
+  <si>
+    <t>AirForce Laced Up Comfortable Stylish Sneaker Shoes For Men By Jutta Ghar Nepal (Updated Colours)</t>
+  </si>
+  <si>
+    <t>Rs.1,489
+Rs. 3,200</t>
+  </si>
+  <si>
+    <t>AF1 Suede Premium Sneaker for Men</t>
+  </si>
+  <si>
+    <t>Rs.1,699
+Rs. 3,499</t>
+  </si>
+  <si>
+    <t>Air Force 1 SB Wolf Grey Suede Premium Sneaker for Men</t>
+  </si>
+  <si>
+    <t>Rs.1,499
+Rs. 3,499</t>
+  </si>
+  <si>
+    <t>Air Force 1 High Top Full White Sneaker with Belt for Men</t>
+  </si>
+  <si>
+    <t>Rs.1,799
+Rs. 4,999</t>
+  </si>
+  <si>
+    <t>Airforce 1 Grey White Lightweight Sneaker Shoes For Men</t>
+  </si>
+  <si>
+    <t>Rs.1,349
+Rs. 3,200</t>
+  </si>
+  <si>
+    <t>Slazenger Grey Lifestyle Shoes For Men SLCS10478</t>
+  </si>
+  <si>
+    <t>Rs.1,469
+Rs. 4,899</t>
+  </si>
+  <si>
+    <t>Air Force 1 High Top Grey White Sneaker with Belt for Men</t>
+  </si>
+  <si>
+    <t>Slazenger Olive Lifestyle Shoes For Men SLCS10560</t>
+  </si>
+  <si>
+    <t>Black Bandana Lightweight Ankle Cut Printed Casual Sneakers Shoes For Men</t>
+  </si>
+  <si>
+    <t>Rs.649
+Rs. 1,600</t>
+  </si>
+  <si>
+    <t>Slazenger Black Lifestyle Shoes For Men SLCS10559</t>
+  </si>
+  <si>
+    <t>Air Force 1 Full White Premium Sneaker for Men</t>
+  </si>
+  <si>
+    <t>Rs.1,499
+Rs. 2,499</t>
+  </si>
+  <si>
+    <t>All White Lightweight Sneaker Shoes For Men</t>
+  </si>
+  <si>
+    <t>Slazenger Navy Blue Running Shoes For Men SLCS10223</t>
+  </si>
+  <si>
+    <t>Rs.1,409
+Rs. 4,699</t>
+  </si>
+  <si>
+    <t>AF1 Grey White Sneaker for Men</t>
+  </si>
+  <si>
+    <t>Rs.1,599
+Rs. 3,999</t>
+  </si>
+  <si>
+    <t>White Comfortable Casual Sneakers For Men (TR-T7)</t>
+  </si>
+  <si>
+    <t>Rs.1,499
+Rs. 2,000</t>
+  </si>
+  <si>
+    <t>Slazenger Brown Lifestyle Shoes For Men SLCS10478</t>
+  </si>
+  <si>
+    <t>Slazenger Black Running Shoes For Men SLCS10448</t>
+  </si>
+  <si>
+    <t>Slazenger Navy Blue Running Shoes For Men SLCS10473</t>
+  </si>
+  <si>
+    <t>Slazenger Dark Grey Running Shoes For Men SLCS10223</t>
+  </si>
+  <si>
+    <t>Goldstar Shoes G10 1102 Olive For Men</t>
+  </si>
+  <si>
+    <t>Rs.999
+Rs. 1,700</t>
+  </si>
+  <si>
+    <t>Bandana Printed Shoes For Men By Marshalls</t>
+  </si>
+  <si>
+    <t>Rs.799
+Rs. 999</t>
+  </si>
+  <si>
+    <t>Fashion Lightweight Premium Sneaker Shoes For Men - Fashion | Shoes For Men | Sneakers For Men | Men's Footwear |</t>
+  </si>
+  <si>
+    <t>Rs.1,499
+Rs. 3,200</t>
+  </si>
+  <si>
+    <t>AirForce Laced Up Interlocked Comfortable Stylish Sneaker Shoes For Men By Jutta Ghar Nepal (Multicolour)</t>
+  </si>
+  <si>
+    <t>Airforce All White Casual Sneaker Shoes For Men By Perfect Fashion</t>
+  </si>
+  <si>
+    <t>Rs.1,399
+Rs. 3,200</t>
+  </si>
+  <si>
+    <t>Jordan 4 Non Mettalic Sneakers Shoes For Men By Jutta Ghar Nepal - Fashion | Sneakers For Men</t>
+  </si>
+  <si>
+    <t>Rs.2,399
+Rs. 3,200</t>
+  </si>
+  <si>
+    <t>Goldstar Dash 02 Black Shoes For Men - Multisize | Shoes For Men | Men's Footwear | Goldstar Shoes |</t>
+  </si>
+  <si>
+    <t>Rs.999
+Rs. 1,099</t>
+  </si>
+  <si>
+    <t>AF1 Full White Sneakers For Men</t>
+  </si>
+  <si>
+    <t>Slazenger Navy Blue Running Shoes For Men SLCS10478</t>
+  </si>
+  <si>
+    <t>Red Solid Design Laceup PU Sports Shoes For Men (TR-87)</t>
+  </si>
+  <si>
+    <t>Rs.4,999
+Rs. 6,500</t>
+  </si>
+  <si>
+    <t>Goldstar J Boot 1 Black Lace-Up Shoes For Men - Fashion | Shoes For Men | Men's Footwear | Goldstar Shoes |</t>
+  </si>
+  <si>
+    <t>Rs.1,399
+Rs. 1,549</t>
+  </si>
+  <si>
+    <t>Slazenger Grey Running Shoes For Men SLCS10448</t>
+  </si>
+  <si>
+    <t>AF1 Armory Blue Suede Premium Sneaker for Men</t>
+  </si>
+  <si>
+    <t>AF1 Greyish Black Sky Suede Premium Sneaker for Men</t>
+  </si>
+  <si>
+    <t>Caliber Shoes WHITE/GR Casual Sneakers For Men ( BLAKE 695G)</t>
+  </si>
+  <si>
+    <t>Rs.3,450</t>
+  </si>
+  <si>
+    <t>Goldstar Concord Air Shoes For Men</t>
+  </si>
+  <si>
+    <t>Rs.1,255
+Rs. 1,400</t>
+  </si>
+  <si>
+    <t>TS Black Phantom Shoes For Men By Jutta Ghar Nepal - Fashion | Sneakers | Shoes For Men</t>
+  </si>
+  <si>
+    <t>Rs.2,999
+Rs. 3,499</t>
+  </si>
+  <si>
+    <t>Goldstar J Boot III Black Lace-Up Shoes For Men</t>
+  </si>
+  <si>
+    <t>Rs.1,349
+Rs. 1,499</t>
+  </si>
+  <si>
+    <t>Goldstar Sunlite 4 Black Sports Shoes For Men By Azan Trading</t>
+  </si>
+  <si>
+    <t>Rs.1,249
+Rs. 1,399</t>
+  </si>
+  <si>
+    <t>AR Jordan 1 High University Blue Sneaker for Men</t>
+  </si>
+  <si>
+    <t>Rs.1,999
+Rs. 5,499</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>1,489</t>
+  </si>
+  <si>
+    <t>1,699</t>
+  </si>
+  <si>
+    <t>1,499</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>1,799</t>
+  </si>
+  <si>
+    <t>1,349</t>
+  </si>
+  <si>
+    <t>1,469</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>1,409</t>
+  </si>
+  <si>
+    <t>1,599</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>1,399</t>
+  </si>
+  <si>
+    <t>2,399</t>
+  </si>
+  <si>
+    <t>4,999</t>
+  </si>
+  <si>
+    <t>3,450</t>
+  </si>
+  <si>
+    <t>1,255</t>
+  </si>
+  <si>
+    <t>2,999</t>
+  </si>
+  <si>
+    <t>1,249</t>
+  </si>
+  <si>
+    <t>1,999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B81"/>
@@ -359,8 +646,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -371,6 +658,326 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
